--- a/database/member.xlsx
+++ b/database/member.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="My Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -26,10 +28,49 @@
     <t>position</t>
   </si>
   <si>
-    <t>DDDDDD</t>
-  </si>
-  <si>
-    <t>基层</t>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>林清彬</t>
+  </si>
+  <si>
+    <t>喜邦首席执行官/资深品牌顾问  喜邦品牌创始人</t>
+  </si>
+  <si>
+    <t>201909270535148668.png</t>
+  </si>
+  <si>
+    <t>作为喜邦品牌品牌经营人、哲思者，林清彬先生早年毕业于广州美术学院，作为中国最早接受系统而专业的品牌形象设计人员，从业十六年来，一直专注余化妆品品牌整合设计领域拥有多年品牌创建余管理资讯经验长期单人众多领导品牌的首席品牌顾问，为诸多著名品牌设定创建性的整合解决方案，基于对中国化妆品市场品牌的切身体会，以及对市场趋势的深刻洞悉，林清彬显示对品牌整合有着独到的见解余敏锐的洞察力，持续帮助品牌从0到1直到确定根基</t>
+  </si>
+  <si>
+    <t>林华明</t>
+  </si>
+  <si>
+    <t>创意策划/资深文案 品牌指导师</t>
+  </si>
+  <si>
+    <t>201909270728251208.png</t>
+  </si>
+  <si>
+    <t>于2010年加入喜邦品牌，负责品牌策略方向和创意出品品质，同时确保项目策略工作的实时推进。深谙中国日化市场的特殊性，以其深刻的消费者洞察，和具有创造性的解决方案，助力中国品牌赢得品牌竞争，林华明显示将观察市场习惯，作为其生活方式的一部分，以自身对消费者的感悟，结合丰富的品牌建设经验，注意研究品牌在不同行业的特殊作用力，和做用原理。他将自身经验不断形成新的品牌战略方法论，为更加开学后俄全面的出啊工作贡献智慧</t>
+  </si>
+  <si>
+    <t>夏斌</t>
+  </si>
+  <si>
+    <t>客户管理总监/首席品牌策略师 营销指导师</t>
+  </si>
+  <si>
+    <t>201909270727174621.png</t>
+  </si>
+  <si>
+    <t>实战派营销策划人，主理喜邦品牌事业部的业务及运营规划，于2009年加入喜邦后，全面负责客户品牌业务及营销推广，专注于企业整体营，品牌建设与管理，销售终端深度帮扶和支持、区域市场运作及推广，申银品牌星期策略知道，对市场发展动向有着敏锐的洞察力与判断力，对品牌策划，余规范实施管理有着丰富的实操经验，擅长策略分析，一理性的切入，感性的创意进行广告沟通</t>
+  </si>
+  <si>
+    <t>201909270728505715.png</t>
   </si>
 </sst>
 </file>
@@ -43,7 +84,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
     </font>
@@ -67,7 +108,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,19 +409,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.27301" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.986145" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.473633" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.1" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.1" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.427734" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.135986" customWidth="true" style="0"/>
+    <col min="4" max="4" width="26.993408" customWidth="true" style="0"/>
+    <col min="5" max="5" width="241.798096" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.1" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.1" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.1" customWidth="true" style="0"/>
@@ -414,8 +455,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -443,13 +488,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -476,14 +525,18 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -506,6 +559,118 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
+    <row r="4" spans="1:26">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -520,4 +685,60 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.69930555555556" right="0.69930555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.69930555555556" right="0.69930555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>